--- a/Data/MedicalTitles.xlsx
+++ b/Data/MedicalTitles.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Programming\GitHub\WPI_CS3431_DatabaseSystems1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrampiah/Documents/workspace/WPI Classes/CS 3431 (DB)/Assignments/Project 1/git/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="20115"/>
+    <workbookView xWindow="0" yWindow="4820" windowWidth="21000" windowHeight="13540"/>
   </bookViews>
   <sheets>
     <sheet name="MedicalTitles" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>TitleName</t>
   </si>
@@ -123,12 +126,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Licensed Dietitian Nutritionist</t>
+  </si>
+  <si>
+    <t>sql first part</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,152 +487,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f xml:space="preserve"> "'" &amp;A2 &amp;"'"</f>
+        <v>'MD'</v>
+      </c>
+      <c r="D2" t="str">
+        <f xml:space="preserve"> "'" &amp;B2 &amp; "'"</f>
+        <v>'Doctor of Medicine'</v>
+      </c>
+      <c r="G2" t="str">
+        <f xml:space="preserve"> "insert into medical_title values(" &amp; C2 &amp; D2 &amp;");"</f>
+        <v>insert into medical_title values('MD''Doctor of Medicine');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C17" si="0" xml:space="preserve"> "'" &amp;A3 &amp;"'"</f>
+        <v>'NP'</v>
+      </c>
+      <c r="D3" t="str">
+        <f xml:space="preserve"> "'" &amp;B3 &amp; "'"</f>
+        <v>'Nurse practitioner'</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G17" si="1" xml:space="preserve"> "insert into medical_title values(" &amp; C3 &amp; D3 &amp;");"</f>
+        <v>insert into medical_title values('NP''Nurse practitioner');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>'WHNP'</v>
+      </c>
+      <c r="D4" t="str">
+        <f xml:space="preserve"> "'" &amp;B4 &amp; "'"</f>
+        <v>'Women's Health Nurse Practitioner'</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('WHNP''Women's Health Nurse Practitioner');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>'PA-C'</v>
+      </c>
+      <c r="D5" t="str">
+        <f xml:space="preserve"> "'" &amp;B5 &amp; "'"</f>
+        <v>'Physician Assistant Certified'</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('PA-C''Physician Assistant Certified');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>'MS'</v>
+      </c>
+      <c r="D6" t="str">
+        <f xml:space="preserve"> "'" &amp;B6 &amp; "'"</f>
+        <v>'Master of Science'</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('MS''Master of Science');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>'RDN'</v>
+      </c>
+      <c r="D7" t="str">
+        <f xml:space="preserve"> "'" &amp;B7 &amp; "'"</f>
+        <v>' Registered Dietitian Nutritionist'</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('RDN'' Registered Dietitian Nutritionist');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>'LDN'</v>
+      </c>
+      <c r="D8" t="str">
+        <f xml:space="preserve"> "'" &amp;B8 &amp; "'"</f>
+        <v>' Licensed Dietitian Nutritionist'</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('LDN'' Licensed Dietitian Nutritionist');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>'RN'</v>
+      </c>
+      <c r="D9" t="str">
+        <f xml:space="preserve"> "'" &amp;B9 &amp; "'"</f>
+        <v>'Registered Nurse'</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('RN''Registered Nurse');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>'CCC-A'</v>
+      </c>
+      <c r="D10" t="str">
+        <f xml:space="preserve"> "'" &amp;B10 &amp; "'"</f>
+        <v>'Certificate of Clinical Competence in Audiology'</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('CCC-A''Certificate of Clinical Competence in Audiology');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>'Au.D'</v>
+      </c>
+      <c r="D11" t="str">
+        <f xml:space="preserve"> "'" &amp;B11 &amp; "'"</f>
+        <v>'Doctor of Audiology'</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('Au.D''Doctor of Audiology');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>'LICSW'</v>
+      </c>
+      <c r="D12" t="str">
+        <f xml:space="preserve"> "'" &amp;B12 &amp; "'"</f>
+        <v>'Licensed Independent Clinical Social Worker'</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('LICSW''Licensed Independent Clinical Social Worker');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>'RD'</v>
+      </c>
+      <c r="D13" t="str">
+        <f xml:space="preserve"> "'" &amp;B13 &amp; "'"</f>
+        <v>'Registered Dietitian'</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('RD''Registered Dietitian');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>'DO'</v>
+      </c>
+      <c r="D14" t="str">
+        <f xml:space="preserve"> "'" &amp;B14 &amp; "'"</f>
+        <v>'Doctor of Osteopathy'</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('DO''Doctor of Osteopathy');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>'MEd'</v>
+      </c>
+      <c r="D15" t="str">
+        <f xml:space="preserve"> "'" &amp;B15 &amp; "'"</f>
+        <v>'Doctor of Medicine'</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('MEd''Doctor of Medicine');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>'LADC I'</v>
+      </c>
+      <c r="D16" t="str">
+        <f xml:space="preserve"> "'" &amp;B16 &amp; "'"</f>
+        <v>'Licensed Alcohol and Drug Counselor I'</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('LADC I''Licensed Alcohol and Drug Counselor I');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>'PhD'</v>
+      </c>
+      <c r="D17" t="str">
+        <f xml:space="preserve"> "'" &amp;B17 &amp; "'"</f>
+        <v>'Doctor of Philosophy'</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into medical_title values('PhD''Doctor of Philosophy');</v>
       </c>
     </row>
   </sheetData>

--- a/Data/MedicalTitles.xlsx
+++ b/Data/MedicalTitles.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4820" windowWidth="21000" windowHeight="13540"/>
+    <workbookView xWindow="-180" yWindow="1480" windowWidth="29020" windowHeight="18580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MedicalTitles" sheetId="1" r:id="rId1"/>
+    <sheet name="Location" sheetId="2" r:id="rId2"/>
+    <sheet name="Edges" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="137">
   <si>
     <t>TitleName</t>
   </si>
@@ -129,13 +131,325 @@
   </si>
   <si>
     <t>sql first part</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>x_coord</t>
+  </si>
+  <si>
+    <t>y_coord</t>
+  </si>
+  <si>
+    <t>Atrium Café</t>
+  </si>
+  <si>
+    <t>Cafeteria</t>
+  </si>
+  <si>
+    <t>Chiodo, Christopher, MD</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>Chun, Yoon Sun, MD</t>
+  </si>
+  <si>
+    <t>Clark, Roger, DO</t>
+  </si>
+  <si>
+    <t>Cochrane, Thomas, MD</t>
+  </si>
+  <si>
+    <t>Cohen, Jeffrey, MD</t>
+  </si>
+  <si>
+    <t>Cohen, Natalie, MD</t>
+  </si>
+  <si>
+    <t>Colorectal Surgery</t>
+  </si>
+  <si>
+    <t>Conant, Alene, MD</t>
+  </si>
+  <si>
+    <t>Connell, Nathan, MD</t>
+  </si>
+  <si>
+    <t>Copello, Maria, MD</t>
+  </si>
+  <si>
+    <t>Corrales, Carleton Eduardo, MD</t>
+  </si>
+  <si>
+    <t>Cosgrove, Garth Rees, MD</t>
+  </si>
+  <si>
+    <t>Cotter, Lindsay, LCSW</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>Cua, Christopher, MD</t>
+  </si>
+  <si>
+    <t>D'Ambrosio, Carolyn, MD</t>
+  </si>
+  <si>
+    <t>Dann, Harriet, MD</t>
+  </si>
+  <si>
+    <t>Dave, Jatin, MD</t>
+  </si>
+  <si>
+    <t>Davidson, Paul, PhD</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>Dawson, Courtney, MD</t>
+  </si>
+  <si>
+    <t>Dialysis Clinic</t>
+  </si>
+  <si>
+    <t>Divito, Sherrie, MD, PhD</t>
+  </si>
+  <si>
+    <t>Doherty, Meghan, LCSW</t>
+  </si>
+  <si>
+    <t>Dominici, Laura, MD</t>
+  </si>
+  <si>
+    <t>Doherty Conference Room</t>
+  </si>
+  <si>
+    <t>Emergency Department</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>service area</t>
+  </si>
+  <si>
+    <t>hallway</t>
+  </si>
+  <si>
+    <t>Family Center</t>
+  </si>
+  <si>
+    <t>neighbors</t>
+  </si>
+  <si>
+    <t>1, 1; 3, 1;</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>Patient Registration</t>
+  </si>
+  <si>
+    <t>Endoscopy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 1; 4, 0; </t>
+  </si>
+  <si>
+    <t>6,0; 8, 1; 4, 1;</t>
+  </si>
+  <si>
+    <t>Preoperation Evaluation</t>
+  </si>
+  <si>
+    <t>8, 2;</t>
+  </si>
+  <si>
+    <t>9,0; 8,1;</t>
+  </si>
+  <si>
+    <t>Day Surgery</t>
+  </si>
+  <si>
+    <t>9, -2</t>
+  </si>
+  <si>
+    <t>6, -2</t>
+  </si>
+  <si>
+    <t>3, -1;</t>
+  </si>
+  <si>
+    <t>3, -2;</t>
+  </si>
+  <si>
+    <t>5, 3; 6, 1; 6, 5;</t>
+  </si>
+  <si>
+    <t>Atrium Lobby</t>
+  </si>
+  <si>
+    <t>3, 3;</t>
+  </si>
+  <si>
+    <t>1, 2; 2, 3; 1, 4</t>
+  </si>
+  <si>
+    <t>StarBucks</t>
+  </si>
+  <si>
+    <t>Kiosk Location</t>
+  </si>
+  <si>
+    <t>6, 4;</t>
+  </si>
+  <si>
+    <t>Atrium Main Entrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6, -3; </t>
+  </si>
+  <si>
+    <t>6, -1</t>
+  </si>
+  <si>
+    <t>"-1, 0 ; 0, 1 ; 0, -1</t>
+  </si>
+  <si>
+    <t>Huros Auditorium</t>
+  </si>
+  <si>
+    <t>0, -2; -1, -1</t>
+  </si>
+  <si>
+    <t>Gift Shop</t>
+  </si>
+  <si>
+    <t>1, 1; -1, 1</t>
+  </si>
+  <si>
+    <t>0, 2;</t>
+  </si>
+  <si>
+    <t>2, 2; 1, 2; -1, 3; -1, 2</t>
+  </si>
+  <si>
+    <t>Atrium Elevators</t>
+  </si>
+  <si>
+    <t>Chapel</t>
+  </si>
+  <si>
+    <t>Hillside Lobby</t>
+  </si>
+  <si>
+    <t>Hillside Elevators</t>
+  </si>
+  <si>
+    <t>Volunteer Services</t>
+  </si>
+  <si>
+    <t>Shuttle Pickup</t>
+  </si>
+  <si>
+    <t>0, -3; -1, -3; -2, -2; 0, -4</t>
+  </si>
+  <si>
+    <t>H300</t>
+  </si>
+  <si>
+    <t>H301</t>
+  </si>
+  <si>
+    <t>H302</t>
+  </si>
+  <si>
+    <t>H303</t>
+  </si>
+  <si>
+    <t>H304</t>
+  </si>
+  <si>
+    <t>H305</t>
+  </si>
+  <si>
+    <t>H100</t>
+  </si>
+  <si>
+    <t>H101</t>
+  </si>
+  <si>
+    <t>H102</t>
+  </si>
+  <si>
+    <t>H103</t>
+  </si>
+  <si>
+    <t>H104</t>
+  </si>
+  <si>
+    <t>H105</t>
+  </si>
+  <si>
+    <t>H106</t>
+  </si>
+  <si>
+    <t>H107</t>
+  </si>
+  <si>
+    <t>H108</t>
+  </si>
+  <si>
+    <t>H109</t>
+  </si>
+  <si>
+    <t>H110</t>
+  </si>
+  <si>
+    <t>H111</t>
+  </si>
+  <si>
+    <t>H112</t>
+  </si>
+  <si>
+    <t>H113</t>
+  </si>
+  <si>
+    <t>H114</t>
+  </si>
+  <si>
+    <t>H115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 0; 2, 1; 1, 2; </t>
+  </si>
+  <si>
+    <t>pointA</t>
+  </si>
+  <si>
+    <t>pointB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +463,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +477,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,13 +485,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -836,4 +1175,1676 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31:K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"insert into location values ("&amp;A2 &amp; ",'" &amp; B2&amp;"','"&amp; C2 &amp;"'," &amp; D2 &amp; "," &amp; E2 &amp; ");"</f>
+        <v>insert into location values (1,'service area','Atrium Café',1,1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">"insert into location values ("&amp;A3 &amp; ",'" &amp; B3&amp;"','"&amp; C3 &amp;"'," &amp; D3 &amp; "," &amp; E3 &amp; ");"</f>
+        <v>insert into location values (2,'office','Chiodo, Christopher, MD',-1,3);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (3,'office','Chun, Yoon Sun, MD',-1,3);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (4,'office','Clark, Roger, DO',-1,3);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (5,'office','Cochrane, Thomas, MD',-1,3);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (6,'office','Cohen, Jeffrey, MD',-1,3);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (7,'office','Cohen, Natalie, MD',-1,3);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (8,'office','Colorectal Surgery',-1,3);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (9,'office','Conant, Alene, MD',-1,3);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (10,'office','Connell, Nathan, MD',-1,3);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (11,'office','Copello, Maria, MD',-1,3);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (12,'office','Corrales, Carleton Eduardo, MD',-1,3);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (13,'office','Cosgrove, Garth Rees, MD',-1,3);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (14,'office','Cotter, Lindsay, LCSW',1,2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (15,'office','Cua, Christopher, MD',1,2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (16,'office','D'Ambrosio, Carolyn, MD',1,2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (17,'office','Dann, Harriet, MD',1,2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (18,'office','Dave, Jatin, MD',1,2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (19,'office','Davidson, Paul, PhD',2,2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (20,'office','Dawson, Courtney, MD',2,2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (21,'service area','Dialysis Clinic',2,2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (22,'office','Divito, Sherrie, MD, PhD',2,2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (23,'office','Doherty, Meghan, LCSW',2,2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (24,'office','Dominici, Laura, MD',2,2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (25,'service area','Colorectal Surgery',-1,3);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (26,'service area','Dialysis Clinic',1,2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (27,'service area','Doherty Conference Room',2,2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (28,'service area','Emergency Department',0,0);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (29,'hallway','H100',1,1);</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (30,'hallway','H101',2,1);</v>
+      </c>
+      <c r="J31" s="5">
+        <v>29</v>
+      </c>
+      <c r="K31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (31,'hallway','H102',1,2);</v>
+      </c>
+      <c r="J32" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (32,'hallway','H103',1,4);</v>
+      </c>
+      <c r="J33" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (33,'hallway','H104',3,1);</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (34,'hallway','H105',4,1);</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (35,'hallway','H106',6,1);</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (36,'hallway','H107',8,1);</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (37,'hallway','H108',9,1);</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>-2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (38,'hallway','H109',8,-2);</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>-2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (39,'hallway','H110',6,-2);</v>
+      </c>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (40,'hallway','H111',6,-1);</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (41,'hallway','H112',3,-1);</v>
+      </c>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (42,'hallway','H113',6,4);</v>
+      </c>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>-3</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (43,'hallway','H114',5,-3);</v>
+      </c>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>-3</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (44,'hallway','H115',6,-3);</v>
+      </c>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (45,'hallway','H300',0,0);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (46,'hallway','H301',0,-1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (47,'hallway','H302',0,1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (48,'hallway','H303',-1,1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (49,'hallway','H304',0,2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>-2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (50,'hallway','H305',0,-2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (51,'office','Family Center',2,2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (52,'office','Patient Registration',3,2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>-2</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (53,'office','Endoscopy',3,-2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (54,'office','Preoperation Evaluation',7,0);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56">
+        <v>-2</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (55,'office','Day Surgery',9,-2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (56,'service area','Atrium Lobby',6,5);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (57,'service area','StarBucks',4,5);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (58,'service area','Kiosk Location',5,4);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (59,'service area','Atrium Main Entrance',6,6);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61">
+        <v>-1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (60,'service area','Huros Auditorium',-1,0);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
+      <c r="E62">
+        <v>-1</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (61,'service area','Gift Shop',-1,-1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63">
+        <v>-1</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (62,'service area','Atrium Elevators',-1,2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64">
+        <v>-1</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (63,'office','3A',-1,3);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (64,'office','3B',1,2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (65,'office','3C',2,2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H73" si="1">"insert into location values ("&amp;A67 &amp; ",'" &amp; B67&amp;"','"&amp; C67 &amp;"'," &amp; D67 &amp; "," &amp; E67 &amp; ");"</f>
+        <v>insert into location values (66,'service area','Cafeteria',1,1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68">
+        <v>-2</v>
+      </c>
+      <c r="E68">
+        <v>-3</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into location values (67,'office','Chapel',-2,-3);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into location values (68,'service area','Hillside Lobby',0,3);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70">
+        <v>-1</v>
+      </c>
+      <c r="E70">
+        <v>-3</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into location values (69,'service area','Kiosk Location',-1,-3);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71">
+        <v>-2</v>
+      </c>
+      <c r="E71">
+        <v>-2</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into location values (70,'service area','Hillside Elevators',-2,-2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>-3</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into location values (71,'office','Volunteer Services',1,-3);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>-4</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into location values (72,'service area','Shuttle Pickup',0,-4);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/MedicalTitles.xlsx
+++ b/Data/MedicalTitles.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="3280" windowWidth="25580" windowHeight="16000" activeTab="1"/>
+    <workbookView xWindow="10400" yWindow="4060" windowWidth="22020" windowHeight="15940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MedicalTitles" sheetId="1" r:id="rId1"/>
     <sheet name="Location" sheetId="2" r:id="rId2"/>
     <sheet name="Care rovidersid" sheetId="4" r:id="rId3"/>
     <sheet name="Edges" sheetId="3" r:id="rId4"/>
+    <sheet name="services" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="166">
   <si>
     <t>TitleName</t>
   </si>
@@ -248,9 +249,6 @@
     <t>H304</t>
   </si>
   <si>
-    <t>H305</t>
-  </si>
-  <si>
     <t>H100</t>
   </si>
   <si>
@@ -456,6 +454,81 @@
   </si>
   <si>
     <t>Laura</t>
+  </si>
+  <si>
+    <t>5A</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
+    <t>5F</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>5H</t>
+  </si>
+  <si>
+    <t>5I</t>
+  </si>
+  <si>
+    <t>5J</t>
+  </si>
+  <si>
+    <t>H501</t>
+  </si>
+  <si>
+    <t>H502</t>
+  </si>
+  <si>
+    <t>H503</t>
+  </si>
+  <si>
+    <t>H504</t>
+  </si>
+  <si>
+    <t>H505</t>
+  </si>
+  <si>
+    <t>H506</t>
+  </si>
+  <si>
+    <t>H507</t>
+  </si>
+  <si>
+    <t>H508</t>
+  </si>
+  <si>
+    <t>H509</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>Valet</t>
+  </si>
+  <si>
+    <t>Blood Testing</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Huvos</t>
+  </si>
+  <si>
+    <t>5S</t>
+  </si>
+  <si>
+    <t>5N</t>
   </si>
 </sst>
 </file>
@@ -465,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +562,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -524,10 +613,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -539,8 +632,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1206,20 +1304,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
@@ -1236,12 +1334,12 @@
         <v>38</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -1258,14 +1356,18 @@
       <c r="F2">
         <v>2</v>
       </c>
+      <c r="G2" t="str">
+        <f xml:space="preserve"> IF(F2= 2, "F3", "F1")</f>
+        <v>F3</v>
+      </c>
       <c r="H2" t="str">
-        <f>"insert into hospital_location values ("&amp;A2 &amp; "," &amp; D2 &amp; "," &amp; E2 &amp;",'"&amp; C2 &amp; "','" &amp; B2&amp; "'," &amp; F2 &amp;");"</f>
-        <v>insert into hospital_location values (63,-1,3,'3A','office',2);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <f>"insert into location values ("&amp;A2 &amp; "," &amp; D2 &amp; "," &amp; E2 &amp;",'"&amp; C2 &amp; "','" &amp; B2&amp; "','" &amp; G2 &amp;"');"</f>
+        <v>insert into location values (1,-1,3,'3A','office','F3');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -1282,14 +1384,18 @@
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3" t="str">
+        <f xml:space="preserve"> IF(F3= 2, "F3", "F1")</f>
+        <v>F3</v>
+      </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H44" si="0">"insert into hospital_location values ("&amp;A3 &amp; "," &amp; D3 &amp; "," &amp; E3 &amp;",'"&amp; C3 &amp; "','" &amp; B3&amp; "'," &amp; F3 &amp;");"</f>
-        <v>insert into hospital_location values (64,1,2,'3B','office',2);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H3:H66" si="0">"insert into location values ("&amp;A3 &amp; "," &amp; D3 &amp; "," &amp; E3 &amp;",'"&amp; C3 &amp; "','" &amp; B3&amp; "','" &amp; G3 &amp;"');"</f>
+        <v>insert into location values (2,1,2,'3B','office','F3');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
@@ -1306,311 +1412,364 @@
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4" t="str">
+        <f xml:space="preserve"> IF(F4= 2, "F3", "F1")</f>
+        <v>F3</v>
+      </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (65,2,2,'3C','office',2);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>insert into location values (3,2,2,'3C','office','F3');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
+      <c r="C5" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5" t="str">
+        <f xml:space="preserve"> IF(F5= 2, "F3", "F1")</f>
+        <v>F3</v>
+      </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (1,1,1,'Atrium Café','service area',2);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>insert into location values (4,-1,2,'Atrium Elevators','service area','F3');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f xml:space="preserve"> IF(F6= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (5,6,5,'Atrium Lobby','service area','F1');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f xml:space="preserve"> IF(F7= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (6,1,1,'H100','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <f xml:space="preserve"> IF(F8= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (7,2,1,'H101','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into hospital_location values (62,-1,2,'Atrium Elevators','service area',2);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <f xml:space="preserve"> IF(F9= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (8,1,2,'H102','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <f xml:space="preserve"> IF(F10= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (9,1,4,'H103','hallway','F1');</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f xml:space="preserve"> IF(F11= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (10,3,1,'H104','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <f xml:space="preserve"> IF(F12= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (11,4,1,'H105','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into hospital_location values (56,6,5,'Atrium Lobby','service area',1);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f xml:space="preserve"> IF(F13= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (12,6,1,'H106','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <f xml:space="preserve"> IF(F14= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (13,8,1,'H107','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f xml:space="preserve"> IF(F15= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (14,9,1,'H108','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>-2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <f xml:space="preserve"> IF(F16= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (15,8,-2,'H109','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17">
         <v>6</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into hospital_location values (59,6,6,'Atrium Main Entrance','service area',1);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into hospital_location values (73,4,0,'Blood Draw Testing','office',1);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into hospital_location values (66,1,1,'Cafeteria','service area',1);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11">
-        <v>-2</v>
-      </c>
-      <c r="E11">
-        <v>-3</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into hospital_location values (67,-2,-3,'Chapel','office',2);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>-2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into hospital_location values (55,9,-2,'Day Surgery','office',1);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into hospital_location values (26,1,2,'Dialysis Clinic','service area',1);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into hospital_location values (21,2,2,'Dialysis Clinic','service area',2);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into hospital_location values (27,2,2,'Doherty Conference Room','service area',1);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into hospital_location values (28,0,0,'Emergency Department','service area',1);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
       </c>
       <c r="E17">
         <v>-2</v>
@@ -1618,898 +1777,1600 @@
       <c r="F17">
         <v>1</v>
       </c>
+      <c r="G17" t="str">
+        <f xml:space="preserve"> IF(F17= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (53,3,-2,'Endoscopy','office',1);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (16,6,-2,'H110','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
+      <c r="G18" t="str">
+        <f xml:space="preserve"> IF(F18= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (51,2,2,'Family Center','office',1);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (17,6,-1,'H111','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>-1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f xml:space="preserve"> IF(F19= 2, "F3", "F1")</f>
+        <v>F1</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (61,-1,-1,'Gift Shop','service area',2);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (18,3,-1,'H112','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
+      <c r="G20" t="str">
+        <f xml:space="preserve"> IF(F20= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (29,1,1,'H100','hallway',1);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (19,6,4,'H113','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
+      <c r="G21" t="str">
+        <f xml:space="preserve"> IF(F21= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (30,2,1,'H101','hallway',1);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (20,5,-3,'H114','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
+      <c r="G22" t="str">
+        <f xml:space="preserve"> IF(F22= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (31,1,2,'H102','hallway',1);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (21,6,-3,'H115','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
+      <c r="G23" t="str">
+        <f xml:space="preserve"> IF(F23= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (32,1,4,'H103','hallway',1);</v>
-      </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (22,6,0,'H116','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
+      <c r="G24" t="str">
+        <f xml:space="preserve"> IF(F24= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (33,3,1,'H104','hallway',1);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (23,8,2,'H117','hallway','F1');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
-        <v>78</v>
+      <c r="C25" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f xml:space="preserve"> IF(F25= 2, "F3", "F1")</f>
+        <v>F3</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (34,4,1,'H105','hallway',1);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (24,0,0,'H300','hallway','F3');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" t="s">
-        <v>79</v>
+      <c r="C26" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f xml:space="preserve"> IF(F26= 2, "F3", "F1")</f>
+        <v>F3</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (35,6,1,'H106','hallway',1);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (25,0,-1,'H301','hallway','F3');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C27" t="s">
-        <v>80</v>
+      <c r="C27" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f xml:space="preserve"> IF(F27= 2, "F3", "F1")</f>
+        <v>F3</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (36,8,1,'H107','hallway',1);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (26,0,1,'H302','hallway','F3');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C28" t="s">
-        <v>81</v>
+      <c r="C28" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f xml:space="preserve"> IF(F28= 2, "F3", "F1")</f>
+        <v>F3</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (37,9,1,'H108','hallway',1);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (27,-1,1,'H303','hallway','F3');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="s">
-        <v>82</v>
+      <c r="C29" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f xml:space="preserve"> IF(F29= 2, "F3", "F1")</f>
+        <v>F3</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (38,8,-2,'H109','hallway',1);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (28,0,2,'H304','hallway','F3');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="s">
-        <v>83</v>
+      <c r="C30" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>-2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f xml:space="preserve"> IF(F30= 2, "F3", "F1")</f>
+        <v>F3</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (39,6,-2,'H110','hallway',1);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>insert into location values (29,0,-2,'Hillside Lobby','hallway','F3');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D31">
+        <v>-2</v>
+      </c>
+      <c r="E31">
+        <v>-2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f xml:space="preserve"> IF(F31= 2, "F3", "F1")</f>
+        <v>F3</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (30,-2,-2,'Hillside Elevators','service area','F3');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="E31">
-        <v>-1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into hospital_location values (40,6,-1,'H111','hallway',1);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
       <c r="E32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G32" t="str">
+        <f xml:space="preserve"> IF(F32= 5, "F5", "F1")</f>
+        <v>F5</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (41,3,-1,'H112','hallway',1);</v>
+        <v>insert into location values (31,6,0,'5S','service area','F5');</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" ref="G33:G51" si="1" xml:space="preserve"> IF(F33= 5, "F5", "F1")</f>
+        <v>F5</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (42,6,4,'H113','hallway',1);</v>
+        <v>insert into location values (32,0,0,'5N','service area','F5');</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
         <v>5</v>
       </c>
-      <c r="E34">
-        <v>-3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (43,5,-3,'H114','hallway',1);</v>
+        <v>insert into location values (33,2,7,'5A','office','F5');</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (44,6,-3,'H115','hallway',1);</v>
+        <v>insert into location values (34,3,8,'5B','office','F5');</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (74,6,0,'H116','hallway',1);</v>
+        <v>insert into location values (35,4,8,'5C','office','F5');</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
         <v>8</v>
       </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
       <c r="F37">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (75,8,2,'H117','hallway',1);</v>
+        <v>insert into location values (36,5,8,'5D','office','F5');</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (45,0,0,'H300','hallway',2);</v>
+        <v>insert into location values (37,5,5,'5F','office','F5');</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (46,0,-1,'H301','hallway',2);</v>
+        <v>insert into location values (38,4,4,'5G','office','F5');</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="B40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>69</v>
+      <c r="C40" t="s">
+        <v>147</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (47,0,1,'H302','hallway',2);</v>
+        <v>insert into location values (39,5,4,'5H','office','F5');</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>70</v>
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
       </c>
       <c r="D41">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (48,-1,1,'H303','hallway',2);</v>
+        <v>insert into location values (40,3,4,'5I','office','F5');</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>149</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E42" s="11">
+        <v>3</v>
+      </c>
+      <c r="F42" s="11">
+        <v>5</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (49,0,2,'H304','hallway',2);</v>
+        <v>insert into location values (41,3,3,'5J','office','F5');</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>72</v>
+      <c r="C43" t="s">
+        <v>150</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43">
-        <v>-2</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>5</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (50,0,-2,'H305','hallway',2);</v>
+        <v>insert into location values (42,0,0,'H501','hallway','F5');</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>151</v>
       </c>
       <c r="D44">
-        <v>-2</v>
-      </c>
-      <c r="E44">
-        <v>-2</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0</v>
+      </c>
+      <c r="F44" s="11">
+        <v>5</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>insert into hospital_location values (70,-2,-2,'Hillside Elevators','service area',2);</v>
+        <v>insert into location values (43,1,0,'H502','hallway','F5');</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>152</v>
       </c>
       <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" s="11">
         <v>0</v>
       </c>
-      <c r="E45">
-        <v>-3</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
+      <c r="F45" s="11">
+        <v>5</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" ref="H45:H54" si="1">"insert into hospital_location values ("&amp;A45 &amp; "," &amp; D45 &amp; "," &amp; E45 &amp;",'"&amp; C45 &amp; "','" &amp; B45&amp; "'," &amp; F45 &amp;");"</f>
-        <v>insert into hospital_location values (68,0,-3,'Hillside Lobby','service area',2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into location values (44,4,0,'H503','hallway','F5');</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
       </c>
       <c r="D46">
-        <v>-1</v>
-      </c>
-      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="E46" s="11">
         <v>0</v>
       </c>
-      <c r="F46">
-        <v>2</v>
+      <c r="F46" s="11">
+        <v>5</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into hospital_location values (60,-1,0,'Huros Auditorium','service area',2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into location values (45,6,0,'H504','hallway','F5');</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
       </c>
       <c r="D47">
-        <v>-1</v>
-      </c>
-      <c r="E47">
-        <v>-3</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="E47" s="11">
+        <v>1</v>
+      </c>
+      <c r="F47" s="11">
+        <v>5</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into hospital_location values (69,-1,-3,'Kiosk Location','service area',2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into location values (46,5,1,'H505','hallway','F5');</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="D48">
         <v>5</v>
       </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
+      <c r="E48" s="11">
+        <v>2</v>
+      </c>
+      <c r="F48" s="11">
+        <v>5</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into hospital_location values (58,5,4,'Kiosk Location','service area',1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into location values (47,5,2,'H506','hallway','F5');</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" s="11">
         <v>3</v>
       </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
+      <c r="F49" s="11">
+        <v>5</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into hospital_location values (52,3,3,'Patient Registration','office',1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into location values (48,5,3,'H507','hallway','F5');</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="D50">
-        <v>7</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E50" s="11">
+        <v>4</v>
+      </c>
+      <c r="F50" s="11">
+        <v>5</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into hospital_location values (54,7,0,'Preoperation Evaluation','office',1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into location values (49,5,4,'H508','hallway','F5');</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="D51">
-        <v>9</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E51" s="11">
+        <v>5</v>
+      </c>
+      <c r="F51" s="11">
+        <v>5</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>F5</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into hospital_location values (76,9,0,'Radiology','office',1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into location values (50,5,5,'H509','hallway','F5');</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>66</v>
+      <c r="C52" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
+      <c r="G52" t="str">
+        <f t="shared" ref="G52:G64" si="2" xml:space="preserve"> IF(F52= 2, "F3", "F1")</f>
+        <v>F3</v>
+      </c>
       <c r="H52" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into hospital_location values (72,0,-4,'Shuttle Pickup','service area',2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into location values (51,1,1,'Atrium Café','service area','F3');</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
       </c>
-      <c r="C53" t="s">
-        <v>56</v>
+      <c r="C53" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>F3</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into hospital_location values (57,4,5,'StarBucks','service area',1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into location values (52,-1,2,'Atrium Elevators','service area','F3');</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>F1</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (53,6,6,'Atrium Main Entrance','service area','F1');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>F1</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (54,4,0,'Blood Testing','service area','F1');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>F1</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (55,1,1,'Cafeteria','service area','F1');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57">
+        <v>-2</v>
+      </c>
+      <c r="E57">
+        <v>-3</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>F3</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (56,-2,-3,'Chapel','service area','F3');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>-2</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>F1</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (57,9,-2,'Day Surgery','service area','F1');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>F1</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (58,1,2,'Dialysis Clinic','service area','F1');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>F3</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (59,2,2,'Dialysis Clinic','service area','F3');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>F1</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (60,2,2,'Doherty Conference Room','service area','F1');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>F1</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (61,0,0,'Emergency Department','service area','F1');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>-2</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>F1</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (62,3,-2,'Endoscopy','service area','F1');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>F1</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (63,2,2,'Family Center','service area','F1');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65">
+        <v>-1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f xml:space="preserve"> IF(F65= 2, "F3", "F1")</f>
+        <v>F3</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (65,-1,0,'Huvos','service area','F3');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f xml:space="preserve"> IF(F66= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into location values (66,3,3,'Patient Registration','service area','F1');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <f xml:space="preserve"> IF(F67= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H74" si="3">"insert into location values ("&amp;A67 &amp; "," &amp; D67 &amp; "," &amp; E67 &amp;",'"&amp; C67 &amp; "','" &amp; B67&amp; "','" &amp; G67 &amp;"');"</f>
+        <v>insert into location values (67,7,0,'Preoperation Evaluation','service area','F1');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68">
+        <v>9</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f xml:space="preserve"> IF(F68= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into location values (68,9,0,'Radiology','service area','F1');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>-4</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <f xml:space="preserve"> IF(F69= 2, "F3", "F1")</f>
+        <v>F3</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into location values (69,0,-4,'Shuttle Pickup','service area','F3');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <f xml:space="preserve"> IF(F70= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into location values (70,4,5,'StarBucks','service area','F1');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>71</v>
       </c>
-      <c r="B54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" t="s">
         <v>65</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
         <v>-3</v>
       </c>
-      <c r="F54">
+      <c r="F71">
         <v>2</v>
       </c>
-      <c r="H54" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into hospital_location values (71,1,-3,'Volunteer Services','office',2);</v>
+      <c r="G71" t="str">
+        <f xml:space="preserve"> IF(F71= 2, "F3", "F1")</f>
+        <v>F3</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into location values (71,1,-3,'Volunteer Services','service area','F3');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <f xml:space="preserve"> IF(F72= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into location values (72,5,9,'Valet','service area','F1');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="str">
+        <f xml:space="preserve"> IF(F73= 2, "F3", "F1")</f>
+        <v>F1</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into location values (73,8,1,'Lab','practice','F1');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>-2</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="str">
+        <f xml:space="preserve"> IF(F74= 2, "F3", "F1")</f>
+        <v>F3</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into location values (,0,-2,'','','F3');</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +3386,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G22"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2536,19 +3397,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2556,10 +3417,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -2568,8 +3429,8 @@
         <v>63</v>
       </c>
       <c r="G2" t="str">
-        <f xml:space="preserve"> "insert into health_care_provider values (" &amp;A2 &amp;",'" &amp;B2 &amp;"','" &amp;C2&amp;"','" &amp;D2&amp;"'," &amp;E2&amp;");"</f>
-        <v>insert into health_care_provider values (1,'Christopher','Chiodo','MD',63);</v>
+        <f xml:space="preserve"> "insert into provider values (" &amp;A2 &amp;",'" &amp;B2 &amp;"','" &amp;C2&amp;"','" &amp;D2&amp;"'," &amp;E2&amp;");"</f>
+        <v>insert into provider values (1,'Christopher','Chiodo','MD',63);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2577,10 +3438,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -2590,8 +3451,8 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G22" si="0" xml:space="preserve"> "insert into health_care_provider values (" &amp;A3 &amp;",'" &amp;B3 &amp;"','" &amp;C3&amp;"','" &amp;D3&amp;"'," &amp;E3&amp;");"</f>
-        <v>insert into health_care_provider values (2,'Yoon Sun','Chun','MD',63);</v>
+        <f t="shared" ref="G3:G22" si="0" xml:space="preserve"> "insert into provider values (" &amp;A3 &amp;",'" &amp;B3 &amp;"','" &amp;C3&amp;"','" &amp;D3&amp;"'," &amp;E3&amp;");"</f>
+        <v>insert into provider values (2,'Yoon Sun','Chun','MD',63);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2599,10 +3460,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -2613,7 +3474,7 @@
       <c r="F4" s="2"/>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (3,'Roger','Clark','DO',63);</v>
+        <v>insert into provider values (3,'Roger','Clark','DO',63);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2621,10 +3482,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -2635,7 +3496,7 @@
       <c r="F5" s="2"/>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (4,'Thomas','Cochrane','MD',63);</v>
+        <v>insert into provider values (4,'Thomas','Cochrane','MD',63);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2643,10 +3504,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -2657,7 +3518,7 @@
       <c r="F6" s="2"/>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (5,'Jeffrey','Cohen','MD',63);</v>
+        <v>insert into provider values (5,'Jeffrey','Cohen','MD',63);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2665,10 +3526,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -2679,7 +3540,7 @@
       <c r="F7" s="2"/>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (6,'Natalie','Cohen','MD',63);</v>
+        <v>insert into provider values (6,'Natalie','Cohen','MD',63);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2687,10 +3548,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -2701,7 +3562,7 @@
       <c r="F8" s="2"/>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (7,'Alene','Conant','MD',63);</v>
+        <v>insert into provider values (7,'Alene','Conant','MD',63);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2709,10 +3570,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -2723,7 +3584,7 @@
       <c r="F9" s="2"/>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (8,'Nathan','Connell','MD',63);</v>
+        <v>insert into provider values (8,'Nathan','Connell','MD',63);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2731,10 +3592,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -2745,7 +3606,7 @@
       <c r="F10" s="2"/>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (9,'Maria','Copello','MD',63);</v>
+        <v>insert into provider values (9,'Maria','Copello','MD',63);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2753,10 +3614,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -2767,7 +3628,7 @@
       <c r="F11" s="2"/>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (10,'Carleton Eduardo','Corrales','MD',63);</v>
+        <v>insert into provider values (10,'Carleton Eduardo','Corrales','MD',63);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2775,10 +3636,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -2789,7 +3650,7 @@
       <c r="F12" s="2"/>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (11,'Garth Rees','Cosgrove','MD',63);</v>
+        <v>insert into provider values (11,'Garth Rees','Cosgrove','MD',63);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2797,13 +3658,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>64</v>
@@ -2811,7 +3672,7 @@
       <c r="F13" s="6"/>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (12,'Lindsay','Cotter','LCSW',64);</v>
+        <v>insert into provider values (12,'Lindsay','Cotter','LCSW',64);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2819,10 +3680,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -2833,7 +3694,7 @@
       <c r="F14" s="6"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (13,'Christopher','Cua','MD',64);</v>
+        <v>insert into provider values (13,'Christopher','Cua','MD',64);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2841,10 +3702,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -2855,7 +3716,7 @@
       <c r="F15" s="6"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (14,'Carolyn','DAmbrosio','MD',64);</v>
+        <v>insert into provider values (14,'Carolyn','DAmbrosio','MD',64);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2863,10 +3724,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -2877,7 +3738,7 @@
       <c r="F16" s="6"/>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (15,'Harriet','Dann','MD',64);</v>
+        <v>insert into provider values (15,'Harriet','Dann','MD',64);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2885,10 +3746,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -2899,7 +3760,7 @@
       <c r="F17" s="6"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (16,'Jatin','Dave','MD',64);</v>
+        <v>insert into provider values (16,'Jatin','Dave','MD',64);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2907,10 +3768,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2921,7 +3782,7 @@
       <c r="F18" s="6"/>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (17,'Paul','Davidson','PhD',65);</v>
+        <v>insert into provider values (17,'Paul','Davidson','PhD',65);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2929,10 +3790,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -2943,7 +3804,7 @@
       <c r="F19" s="8"/>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (18,'Courtney','Dawson','MD',65);</v>
+        <v>insert into provider values (18,'Courtney','Dawson','MD',65);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2951,10 +3812,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -2965,7 +3826,7 @@
       <c r="F20" s="6"/>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (19,'Sherrie','Divito','PhD',65);</v>
+        <v>insert into provider values (19,'Sherrie','Divito','PhD',65);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2973,13 +3834,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21">
         <v>65</v>
@@ -2987,7 +3848,7 @@
       <c r="F21" s="6"/>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (20,'Meghan','Doherty','LCSW',65);</v>
+        <v>insert into provider values (20,'Meghan','Doherty','LCSW',65);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2995,10 +3856,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -3009,7 +3870,7 @@
       <c r="F22" s="6"/>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into health_care_provider values (21,'Laura','Dominici','MD',65);</v>
+        <v>insert into provider values (21,'Laura','Dominici','MD',65);</v>
       </c>
     </row>
   </sheetData>
@@ -3019,10 +3880,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3035,10 +3896,10 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3046,14 +3907,14 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E2" t="str">
-        <f xml:space="preserve"> "insert into location_neighbor values ( " &amp;A2 &amp;"," &amp; B2 &amp; "," &amp;C2 &amp;");"</f>
-        <v>insert into location_neighbor values ( 1,48,49);</v>
+        <f xml:space="preserve"> "insert into neighbor values ( "&amp; B2 &amp; "," &amp;C2 &amp;");"</f>
+        <v>insert into neighbor values ( 42,31);</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3061,14 +3922,14 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C3">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E45" si="0" xml:space="preserve"> "insert into location_neighbor values ( " &amp;A3 &amp;"," &amp; B3 &amp; "," &amp;C3 &amp;");"</f>
-        <v>insert into location_neighbor values ( 2,50,68);</v>
+        <f t="shared" ref="E3:E19" si="0" xml:space="preserve"> "insert into neighbor values ( "&amp; B3 &amp; "," &amp;C3 &amp;");"</f>
+        <v>insert into neighbor values ( 43,31);</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3076,14 +3937,14 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 3,50,69);</v>
+        <v>insert into neighbor values ( 44,74);</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3091,14 +3952,14 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 4,50,70);</v>
+        <v>insert into neighbor values ( 46,41);</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3106,14 +3967,14 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 5,50,72);</v>
+        <v>insert into neighbor values ( 47,38);</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3121,14 +3982,14 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 6,46,50);</v>
+        <v>insert into neighbor values ( 47,39);</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3136,14 +3997,14 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 7,46,61);</v>
+        <v>insert into neighbor values ( 48,33);</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3151,14 +4012,14 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 8,45,60);</v>
+        <v>insert into neighbor values ( 49,35);</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3166,14 +4027,14 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 9,45,47);</v>
+        <v>insert into neighbor values ( 49,34);</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3181,14 +4042,14 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 10,45,46);</v>
+        <v>insert into neighbor values ( 49,36);</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3196,14 +4057,14 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 11,47,1);</v>
+        <v>insert into neighbor values ( 4,28);</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3211,14 +4072,14 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 12,47,48);</v>
+        <v>insert into neighbor values ( 28,1);</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3226,14 +4087,14 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 13,49,65);</v>
+        <v>insert into neighbor values ( 28,2);</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3241,44 +4102,44 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 14,49,64);</v>
+        <v>insert into neighbor values ( 28,3);</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>49</v>
+      <c r="B16" s="4">
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 15,49,63);</v>
+        <v>insert into neighbor values ( 29,30);</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>49</v>
+      <c r="B17" s="4">
+        <v>29</v>
       </c>
       <c r="C17">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 16,49,62);</v>
+        <v>insert into neighbor values ( 29,56);</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3289,11 +4150,11 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 17,29,28);</v>
+        <v>insert into neighbor values ( 29,69);</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3301,404 +4162,478 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 18,29,64);</v>
+        <v>insert into neighbor values ( 26,65);</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"insert into service values ('" &amp; C2&amp; "','" &amp; B2 &amp;"');"</f>
+        <v>insert into service values ('Atrium Café','service area');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H25" si="0">"insert into service values ('" &amp; C3&amp; "','" &amp; B3 &amp;"');"</f>
+        <v>insert into service values ('Atrium Elevators','service area');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Atrium Main Entrance','service area');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Blood Draw Testing','practice');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Cafeteria','service area');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Chapel','office');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Day Surgery','practice');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Dialysis Clinic','practice');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Dialysis Clinic','practice');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Doherty Conference Room','service area');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Emergency Department','practice');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Endoscopy','practice');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Family Center','office');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Gift Shop','service area');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Hillside Lobby','service area');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Huros Auditorium','service area');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Kiosk Location','service area');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Kiosk Location','service area');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>29</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 19,29,30);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Patient Registration','office');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>31</v>
-      </c>
-      <c r="C21">
-        <v>64</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 20,31,64);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Preoperation Evaluation','practice');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>31</v>
-      </c>
-      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Radiology','practice');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>51</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 21,31,51);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>31</v>
-      </c>
-      <c r="C23">
-        <v>32</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 22,31,32);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Shuttle Pickup','service area');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4">
-        <v>32</v>
-      </c>
-      <c r="C24">
-        <v>64</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 23,32,64);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('StarBucks','service area');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>66</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 24,30,66);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>33</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 25,30,33);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>41</v>
-      </c>
-      <c r="C27">
         <v>53</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 26,41,53);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>52</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 27,33,52);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>34</v>
-      </c>
-      <c r="C29">
-        <v>33</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 28,34,33);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>34</v>
-      </c>
-      <c r="C30">
-        <v>73</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 29,34,73);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>43</v>
-      </c>
-      <c r="C31">
-        <v>44</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 30,43,44);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>58</v>
-      </c>
-      <c r="C32">
-        <v>42</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 31,58,42);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>44</v>
-      </c>
-      <c r="C33">
-        <v>39</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 32,44,39);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>39</v>
-      </c>
-      <c r="C34">
-        <v>40</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 33,39,40);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <v>41</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 34,40,41);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>74</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 35,35,74);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37">
-        <v>36</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 36,35,36);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>35</v>
-      </c>
-      <c r="C38">
-        <v>34</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 37,35,34);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>42</v>
-      </c>
-      <c r="C39">
-        <v>58</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 38,42,58);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>42</v>
-      </c>
-      <c r="C40">
-        <v>35</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 39,42,35);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>42</v>
-      </c>
-      <c r="C41">
-        <v>56</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 40,42,56);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>38</v>
-      </c>
-      <c r="C42">
-        <v>55</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 41,38,55);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>36</v>
-      </c>
-      <c r="C43">
-        <v>75</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 42,36,75);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>37</v>
-      </c>
-      <c r="C44">
-        <v>76</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 43,37,76);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>37</v>
-      </c>
-      <c r="C45">
-        <v>36</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into location_neighbor values ( 44,37,36);</v>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into service values ('Volunteer Services','office');</v>
       </c>
     </row>
   </sheetData>
